--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
   <si>
     <t>171 (pre-alpha) 0x5CB85BE0FE74FCEDFEA4FB89D089828C209533AC23CC23AF00D2B0E2BA7EDDA3</t>
   </si>
@@ -640,7 +640,10 @@
     <t>Open Art 2019 Virtual Exhibition    0x99D01994074A64C0CC421790C2253DA643141AC322C56D9059621646404F9A86</t>
   </si>
   <si>
-    <t>Operation Lovecraft: Fallen Doll    0x64207C05285D224C34D110CB6D935862BB019CC2FE87169E189A97E27A927FAC</t>
+    <t>Operation Lovecraft: Fallen Doll (playtest) 0x64207C05285D224C34D110CB6D935862BB019CC2FE87169E189A97E27A927FAC</t>
+  </si>
+  <si>
+    <t>Operation Lovecraft: Fallen Doll (demo) 0x496E7699BC1D0DC35DB948772660CF4079F5051408E5DD79E398CF327E6AD6F5</t>
   </si>
   <si>
     <t>Outriders   0x7638792F423F4528482B4D6251655468576D5A7134743777397A24432646294A</t>
@@ -992,6 +995,9 @@
   </si>
   <si>
     <t>Zhu Xian World (benchmark)  0xC20FE358AE4FB430341AF49B5A72DE126AD757BC090E470097F81A73BC6B45AA</t>
+  </si>
+  <si>
+    <t>Fortnite 1.9.1  DAE1418B289573D4148C72F3C76ABC7E2DB9CAA618A3EAF2D8580EB3A1BB7A63</t>
   </si>
 </sst>
 </file>
@@ -999,23 +1005,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1029,20 +1027,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1052,6 +1042,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1060,6 +1057,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,21 +1102,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1128,6 +1126,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1144,13 +1157,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1166,7 +1172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,13 +1184,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,49 +1268,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,13 +1292,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,37 +1334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,37 +1346,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,11 +1366,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1376,21 +1397,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1434,26 +1440,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,145 +1471,145 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1930,10 +1936,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C326"/>
+  <dimension ref="A1:C328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="B337" sqref="B337"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1941,6 +1947,9 @@
     <col min="1" max="1" width="114.857142857143" customWidth="1"/>
     <col min="2" max="2" width="39.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="82" customWidth="1"/>
+    <col min="5" max="5" width="110.904761904762" customWidth="1"/>
+    <col min="6" max="6" width="45.9714285714286" customWidth="1"/>
+    <col min="7" max="7" width="72.9809523809524" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4653,7 +4662,7 @@
       </c>
       <c r="B209" t="str">
         <f t="shared" si="6"/>
-        <v>Operation Lovecraft: Fallen Doll   </v>
+        <v>Operation Lovecraft: Fallen Doll (playtest)</v>
       </c>
       <c r="C209" t="str">
         <f t="shared" si="7"/>
@@ -4666,11 +4675,11 @@
       </c>
       <c r="B210" t="str">
         <f t="shared" si="6"/>
-        <v>Outriders  </v>
+        <v>Operation Lovecraft: Fallen Doll (demo)</v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="7"/>
-        <v>0x7638792F423F4528482B4D6251655468576D5A7134743777397A24432646294A</v>
+        <v>0x496E7699BC1D0DC35DB948772660CF4079F5051408E5DD79E398CF327E6AD6F5</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4679,11 +4688,11 @@
       </c>
       <c r="B211" t="str">
         <f t="shared" si="6"/>
-        <v>Outriders (demo)   </v>
+        <v>Outriders  </v>
       </c>
       <c r="C211" t="str">
         <f t="shared" si="7"/>
-        <v>0x9DC7A1C64DC8FC377D6085DE22760DA0A594D231770C5B10DBD0DBF47628EEDD</v>
+        <v>0x7638792F423F4528482B4D6251655468576D5A7134743777397A24432646294A</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4692,11 +4701,11 @@
       </c>
       <c r="B212" t="str">
         <f t="shared" si="6"/>
-        <v>OverHIT</v>
+        <v>Outriders (demo)   </v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="7"/>
-        <v>0x4531413146324534414130363643353442443530393046343633454444463538</v>
+        <v>0x9DC7A1C64DC8FC377D6085DE22760DA0A594D231770C5B10DBD0DBF47628EEDD</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4705,11 +4714,11 @@
       </c>
       <c r="B213" t="str">
         <f t="shared" si="6"/>
-        <v>Paper Dolls 2  </v>
+        <v>OverHIT</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="7"/>
-        <v>0x9AD51E2180796752FBE93D96C40E47C9893F9CC969B3817AE785427AB28D93D6</v>
+        <v>0x4531413146324534414130363643353442443530393046343633454444463538</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4718,11 +4727,11 @@
       </c>
       <c r="B214" t="str">
         <f t="shared" si="6"/>
-        <v>Paradise Lost (demo)   </v>
+        <v>Paper Dolls 2  </v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="7"/>
-        <v>0x22833BC6DEAED80255E2AB2A6C8D8D7C6981A5D9822834E275542C9772B6FA6C</v>
+        <v>0x9AD51E2180796752FBE93D96C40E47C9893F9CC969B3817AE785427AB28D93D6</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4731,11 +4740,11 @@
       </c>
       <c r="B215" t="str">
         <f t="shared" si="6"/>
-        <v>PBA Pro Bowling 2021   </v>
+        <v>Paradise Lost (demo)   </v>
       </c>
       <c r="C215" t="str">
         <f t="shared" si="7"/>
-        <v>0x174F7016F82581E12E92DA5F71DEF8EA98DE4BC8676F6CECA01E994BFAB2F9D4</v>
+        <v>0x22833BC6DEAED80255E2AB2A6C8D8D7C6981A5D9822834E275542C9772B6FA6C</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4744,11 +4753,11 @@
       </c>
       <c r="B216" t="str">
         <f t="shared" si="6"/>
-        <v>Phantom: Covert Ops</v>
+        <v>PBA Pro Bowling 2021   </v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="7"/>
-        <v>0x9D802F04AE889878057C5720ACFB01B2C595899E555B6859FD0ED08A2B154F94</v>
+        <v>0x174F7016F82581E12E92DA5F71DEF8EA98DE4BC8676F6CECA01E994BFAB2F9D4</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4757,11 +4766,11 @@
       </c>
       <c r="B217" t="str">
         <f t="shared" si="6"/>
-        <v>PlayerUnknown's Battlegrounds (PUBG)   </v>
+        <v>Phantom: Covert Ops</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="7"/>
-        <v>0x3435444431354436444432444135304145423731434537413532383443463845</v>
+        <v>0x9D802F04AE889878057C5720ACFB01B2C595899E555B6859FD0ED08A2B154F94</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4769,12 +4778,12 @@
         <v>217</v>
       </c>
       <c r="B218" t="str">
-        <f>LEFT(A218,SEARCH("/",SUBSTITUTE(A218," ","/",LEN(A218)-LEN(SUBSTITUTE(A218," ",))))-1)</f>
-        <v>Potentia   </v>
+        <f t="shared" si="6"/>
+        <v>PlayerUnknown's Battlegrounds (PUBG)   </v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="7"/>
-        <v>0xF31F7A2739450967A8143CD631C61433121A51FCFD20D362EF8884488BA3C263</v>
+        <v>0x3435444431354436444432444135304145423731434537413532383443463845</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4783,11 +4792,11 @@
       </c>
       <c r="B219" t="str">
         <f t="shared" si="6"/>
-        <v>Predator: Hunting Grounds  </v>
+        <v>Potentia   </v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="7"/>
-        <v>0x1ECD0D94D36FE502D4FEB82C24BC354048F8A1A5643663DB8F46C45D1D2A6CCB</v>
+        <v>0xF31F7A2739450967A8143CD631C61433121A51FCFD20D362EF8884488BA3C263</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4796,11 +4805,11 @@
       </c>
       <c r="B220" t="str">
         <f t="shared" si="6"/>
-        <v>Prey Typhon Hunter </v>
+        <v>Predator: Hunting Grounds  </v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="7"/>
-        <v>0xC28F80D4C23B7B4B43C6704CC65A96532FC392D0D123F7E777CC949817D40AA7</v>
+        <v>0x1ECD0D94D36FE502D4FEB82C24BC354048F8A1A5643663DB8F46C45D1D2A6CCB</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4809,11 +4818,11 @@
       </c>
       <c r="B221" t="str">
         <f t="shared" si="6"/>
-        <v>Project Feline </v>
+        <v>Prey Typhon Hunter </v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="7"/>
-        <v>0x620E8AD508F57F0E1A40BBE1929A490EDA59CA40FEFE4745D1D594F7F2C2E0CA</v>
+        <v>0xC28F80D4C23B7B4B43C6704CC65A96532FC392D0D123F7E777CC949817D40AA7</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4822,11 +4831,11 @@
       </c>
       <c r="B222" t="str">
         <f t="shared" si="6"/>
-        <v>Project RIP</v>
+        <v>Project Feline </v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="7"/>
-        <v>0x07105BCFDFB8A313DEEB0E7FEBA535C3BFFCBA54C558876F3ED7F1663DBCB6D9</v>
+        <v>0x620E8AD508F57F0E1A40BBE1929A490EDA59CA40FEFE4745D1D594F7F2C2E0CA</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4835,11 +4844,11 @@
       </c>
       <c r="B223" t="str">
         <f t="shared" si="6"/>
-        <v>Project Snow (closed beta) </v>
+        <v>Project RIP</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="7"/>
-        <v>0xC14735FB5A872D2AFA76A5C38521AB8B8E21072C08525B913307608BD1182FA7</v>
+        <v>0x07105BCFDFB8A313DEEB0E7FEBA535C3BFFCBA54C558876F3ED7F1663DBCB6D9</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4848,11 +4857,11 @@
       </c>
       <c r="B224" t="str">
         <f t="shared" si="6"/>
-        <v>Prophecy Of The Nun</v>
+        <v>Project Snow (closed beta) </v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="7"/>
-        <v>0xE1FB754F5D833A7442E87500001EBCA458B0681CC9679B71F9B66C8651A3794F</v>
+        <v>0xC14735FB5A872D2AFA76A5C38521AB8B8E21072C08525B913307608BD1182FA7</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4861,11 +4870,11 @@
       </c>
       <c r="B225" t="str">
         <f t="shared" si="6"/>
-        <v>PUBG: New State</v>
+        <v>Prophecy Of The Nun</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="7"/>
-        <v>0x27DFBADBB537388ACDE27A7C5F3EBC3721AF0AE0A7602D2D7F8A16548F37D394</v>
+        <v>0xE1FB754F5D833A7442E87500001EBCA458B0681CC9679B71F9B66C8651A3794F</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4874,11 +4883,11 @@
       </c>
       <c r="B226" t="str">
         <f t="shared" si="6"/>
-        <v>Ragdoll Kanojo </v>
+        <v>PUBG: New State</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="7"/>
-        <v>0x3016B2B2B03658B2EDAE035CA4123530C99B97BA6D8C3CB818261226D1574269</v>
+        <v>0x27DFBADBB537388ACDE27A7C5F3EBC3721AF0AE0A7602D2D7F8A16548F37D394</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4887,11 +4896,11 @@
       </c>
       <c r="B227" t="str">
         <f t="shared" si="6"/>
-        <v>Ready Or Not (alpha)   </v>
+        <v>Ragdoll Kanojo </v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="7"/>
-        <v>0xE608A99C1512B955A2D65238A711D54CA988AFB2169D8B98BF5989079F616777</v>
+        <v>0x3016B2B2B03658B2EDAE035CA4123530C99B97BA6D8C3CB818261226D1574269</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4900,11 +4909,11 @@
       </c>
       <c r="B228" t="str">
         <f t="shared" si="6"/>
-        <v>Real Life Sunbay City  </v>
+        <v>Ready Or Not (alpha)   </v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="7"/>
-        <v>0xFC7203330D07E787843BD3DE66014A7E40D657F58A81048264973A6D3D0F5E77</v>
+        <v>0xE608A99C1512B955A2D65238A711D54CA988AFB2169D8B98BF5989079F616777</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4913,11 +4922,11 @@
       </c>
       <c r="B229" t="str">
         <f t="shared" si="6"/>
-        <v>Rise Online World (closed beta)</v>
+        <v>Real Life Sunbay City  </v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="7"/>
-        <v>0xBCCC309B3FDBC83EA5687A89E5C483BA2CB9C2B9E106F975ED1E15F0D9A2D2B8</v>
+        <v>0xFC7203330D07E787843BD3DE66014A7E40D657F58A81048264973A6D3D0F5E77</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4926,11 +4935,11 @@
       </c>
       <c r="B230" t="str">
         <f t="shared" si="6"/>
-        <v>Robin Hood - Sherwood Builders </v>
+        <v>Rise Online World (closed beta)</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="7"/>
-        <v>0x6CEB3030D531EE99253A7E3A6F861F6BEC128D64ECC42B6957976502441DB42A</v>
+        <v>0xBCCC309B3FDBC83EA5687A89E5C483BA2CB9C2B9E106F975ED1E15F0D9A2D2B8</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4939,11 +4948,11 @@
       </c>
       <c r="B231" t="str">
         <f t="shared" si="6"/>
-        <v>RoboQuest  </v>
+        <v>Robin Hood - Sherwood Builders </v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="7"/>
-        <v>0xF8BBBB05B9D27C980294029D4CDAEE25B45B947A2A4FAEBCDE97600285D03AD3</v>
+        <v>0x6CEB3030D531EE99253A7E3A6F861F6BEC128D64ECC42B6957976502441DB42A</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4952,11 +4961,11 @@
       </c>
       <c r="B232" t="str">
         <f t="shared" si="6"/>
-        <v>Rocket Arena   </v>
+        <v>RoboQuest  </v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="7"/>
-        <v>0x1705A4FC7B5DE7019D9245460963B87373009DBA6052B549DB3443C00E6E7A98</v>
+        <v>0xF8BBBB05B9D27C980294029D4CDAEE25B45B947A2A4FAEBCDE97600285D03AD3</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4965,11 +4974,11 @@
       </c>
       <c r="B233" t="str">
         <f t="shared" si="6"/>
-        <v>R-Type Final 2 </v>
+        <v>Rocket Arena   </v>
       </c>
       <c r="C233" t="str">
         <f t="shared" si="7"/>
-        <v>0xFB97EBE9991B3E771C89F195B40F64DF001344971D7504D05B4EEF734B37B4CE</v>
+        <v>0x1705A4FC7B5DE7019D9245460963B87373009DBA6052B549DB3443C00E6E7A98</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4978,11 +4987,11 @@
       </c>
       <c r="B234" t="str">
         <f t="shared" si="6"/>
-        <v>Rune II</v>
+        <v>R-Type Final 2 </v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="7"/>
-        <v>0x5DD20432F2AD810071033FC3F925FFDFD647514524D0A0D222E17D76BAF57BFD</v>
+        <v>0xFB97EBE9991B3E771C89F195B40F64DF001344971D7504D05B4EEF734B37B4CE</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4991,11 +5000,11 @@
       </c>
       <c r="B235" t="str">
         <f t="shared" si="6"/>
-        <v>Sabotaj</v>
+        <v>Rune II</v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="7"/>
-        <v>0x3911EADF2B6411C537F0179593F87C091630B8190432D89ABA0252981210CCFE</v>
+        <v>0x5DD20432F2AD810071033FC3F925FFDFD647514524D0A0D222E17D76BAF57BFD</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5004,11 +5013,11 @@
       </c>
       <c r="B236" t="str">
         <f t="shared" si="6"/>
-        <v>Samurai Jack: Battle Through Time  </v>
+        <v>Sabotaj</v>
       </c>
       <c r="C236" t="str">
         <f t="shared" si="7"/>
-        <v>0x8E0A631576F6CBE340BF039C7C5BB8632E6FDC1082E019B646B44B2846C96855</v>
+        <v>0x3911EADF2B6411C537F0179593F87C091630B8190432D89ABA0252981210CCFE</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5017,11 +5026,11 @@
       </c>
       <c r="B237" t="str">
         <f t="shared" si="6"/>
-        <v>Samurai Shodown (Reboot)   </v>
+        <v>Samurai Jack: Battle Through Time  </v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="7"/>
-        <v>0xDD65CE67FB67735547E32B3BB63FB97C6834EDCBA8359E7AE4CC1ADBCB9597B0</v>
+        <v>0x8E0A631576F6CBE340BF039C7C5BB8632E6FDC1082E019B646B44B2846C96855</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5030,11 +5039,11 @@
       </c>
       <c r="B238" t="str">
         <f t="shared" si="6"/>
-        <v>Satisfactory   </v>
+        <v>Samurai Shodown (Reboot)   </v>
       </c>
       <c r="C238" t="str">
         <f t="shared" si="7"/>
-        <v>0x0A45EC8C0289ADF8CB28473CF3BF5F4D24BB16D82BAD6562F2F9FD2B2DF98251</v>
+        <v>0xDD65CE67FB67735547E32B3BB63FB97C6834EDCBA8359E7AE4CC1ADBCB9597B0</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5043,11 +5052,11 @@
       </c>
       <c r="B239" t="str">
         <f t="shared" si="6"/>
-        <v>Satisfactory 4.22</v>
+        <v>Satisfactory   </v>
       </c>
       <c r="C239" t="str">
         <f t="shared" si="7"/>
-        <v>0x0223D05ABC5B298CF29BB25E0E1FD6CD5C624D2DBBE825EBE1B090042217CBC8</v>
+        <v>0x0A45EC8C0289ADF8CB28473CF3BF5F4D24BB16D82BAD6562F2F9FD2B2DF98251</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5056,11 +5065,11 @@
       </c>
       <c r="B240" t="str">
         <f t="shared" si="6"/>
-        <v>Scarlet Nexus  </v>
+        <v>Satisfactory 4.22</v>
       </c>
       <c r="C240" t="str">
         <f t="shared" si="7"/>
-        <v>0x48AE8311350417BDC50A440FCD0E98B2FA6BCEAE3EDA8D0E24881F205E6C4540</v>
+        <v>0x0223D05ABC5B298CF29BB25E0E1FD6CD5C624D2DBBE825EBE1B090042217CBC8</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5069,11 +5078,11 @@
       </c>
       <c r="B241" t="str">
         <f t="shared" si="6"/>
-        <v>Scribble It</v>
+        <v>Scarlet Nexus  </v>
       </c>
       <c r="C241" t="str">
         <f t="shared" si="7"/>
-        <v>0xD13BCC8602419BE9A8CBF66F8A0E6908E0C9E341BED385EA9DADD34341EE0A86</v>
+        <v>0x48AE8311350417BDC50A440FCD0E98B2FA6BCEAE3EDA8D0E24881F205E6C4540</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5082,11 +5091,11 @@
       </c>
       <c r="B242" t="str">
         <f t="shared" si="6"/>
-        <v>SCUM   </v>
+        <v>Scribble It</v>
       </c>
       <c r="C242" t="str">
         <f t="shared" si="7"/>
-        <v>0x0B1F4E543FB798EFC5BD861BB405BE7081CD03698EA9BA06469462A3B113CA81</v>
+        <v>0xD13BCC8602419BE9A8CBF66F8A0E6908E0C9E341BED385EA9DADD34341EE0A86</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5095,11 +5104,11 @@
       </c>
       <c r="B243" t="str">
         <f t="shared" si="6"/>
-        <v>Sea of Thieves </v>
+        <v>SCUM   </v>
       </c>
       <c r="C243" t="str">
         <f t="shared" si="7"/>
-        <v>0x37A0BC3DC2E01D9EB4923CA266A5701F56A4802347F07927FC3FC25C93B31B50</v>
+        <v>0x0B1F4E543FB798EFC5BD861BB405BE7081CD03698EA9BA06469462A3B113CA81</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5108,11 +5117,11 @@
       </c>
       <c r="B244" t="str">
         <f t="shared" si="6"/>
-        <v>Session: Skateboarding Sim Game</v>
+        <v>Sea of Thieves </v>
       </c>
       <c r="C244" t="str">
         <f t="shared" si="7"/>
-        <v>0x2D0E2B103CF0B3CB5EA8D6B774EA49400D36BD431F4BDEFF74F99261BD1DABDC</v>
+        <v>0x37A0BC3DC2E01D9EB4923CA266A5701F56A4802347F07927FC3FC25C93B31B50</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5121,11 +5130,11 @@
       </c>
       <c r="B245" t="str">
         <f t="shared" si="6"/>
-        <v>Seven Knights II   </v>
+        <v>Session: Skateboarding Sim Game</v>
       </c>
       <c r="C245" t="str">
         <f t="shared" si="7"/>
-        <v>0x6100BBE38F3FD3C8A6D06CDCD3FA9D0E69664FD75F209D31E2417DB2F001D1DC</v>
+        <v>0x2D0E2B103CF0B3CB5EA8D6B774EA49400D36BD431F4BDEFF74F99261BD1DABDC</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5134,11 +5143,11 @@
       </c>
       <c r="B246" t="str">
         <f t="shared" si="6"/>
-        <v>Shenmue III</v>
+        <v>Seven Knights II   </v>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="7"/>
-        <v>0x083825D664477DF45EDBF6331FE050FBDCBC3024794D7716252BED1597417A48</v>
+        <v>0x6100BBE38F3FD3C8A6D06CDCD3FA9D0E69664FD75F209D31E2417DB2F001D1DC</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5147,11 +5156,11 @@
       </c>
       <c r="B247" t="str">
         <f t="shared" si="6"/>
-        <v>Shin Megami Tensei V   </v>
+        <v>Shenmue III</v>
       </c>
       <c r="C247" t="str">
         <f t="shared" si="7"/>
-        <v>0x5B23532568E0C4E82F4ABC7B22BCAC3599006FD106D9CD8AACD1BD4393FFDC61</v>
+        <v>0x083825D664477DF45EDBF6331FE050FBDCBC3024794D7716252BED1597417A48</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5160,11 +5169,11 @@
       </c>
       <c r="B248" t="str">
         <f t="shared" si="6"/>
-        <v>Shurado v1.2.1 </v>
+        <v>Shin Megami Tensei V   </v>
       </c>
       <c r="C248" t="str">
         <f t="shared" si="7"/>
-        <v>0x29497CD10FB94564D2594A00ADE9687076A9CB5C6ABD1A0C3C48F4683D2ED57F</v>
+        <v>0x5B23532568E0C4E82F4ABC7B22BCAC3599006FD106D9CD8AACD1BD4393FFDC61</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5173,11 +5182,11 @@
       </c>
       <c r="B249" t="str">
         <f t="shared" si="6"/>
-        <v>Silicon Lust (alpha)   </v>
+        <v>Shurado v1.2.1 </v>
       </c>
       <c r="C249" t="str">
         <f t="shared" si="7"/>
-        <v>0xB935AB8747FEE051743629DCF5BB73F545B8CF6B2EDAA7DD8142AA13128F9420</v>
+        <v>0x29497CD10FB94564D2594A00ADE9687076A9CB5C6ABD1A0C3C48F4683D2ED57F</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5186,11 +5195,11 @@
       </c>
       <c r="B250" t="str">
         <f t="shared" si="6"/>
-        <v>Silicon Rising </v>
+        <v>Silicon Lust (alpha)   </v>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="7"/>
-        <v>0x4610901CE4C4274AF9B88E1821C04284067CAAAC798B6220BDD800FD1BE2510E</v>
+        <v>0xB935AB8747FEE051743629DCF5BB73F545B8CF6B2EDAA7DD8142AA13128F9420</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5199,11 +5208,11 @@
       </c>
       <c r="B251" t="str">
         <f t="shared" si="6"/>
-        <v>Sinister Halloween </v>
+        <v>Silicon Rising </v>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="7"/>
-        <v>0x2E59AB633B382345AF6AD4617A68C4C9536380C65CE10A8004FA8293951A4AB0</v>
+        <v>0x4610901CE4C4274AF9B88E1821C04284067CAAAC798B6220BDD800FD1BE2510E</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5212,11 +5221,11 @@
       </c>
       <c r="B252" t="str">
         <f t="shared" si="6"/>
-        <v>Slaves of Rome </v>
+        <v>Sinister Halloween </v>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="7"/>
-        <v>0xC3AEC3423C1676D9CFA5A5F3CB81DDF95CE7DF7B79CCFB0DE58CF48A5947395A</v>
+        <v>0x2E59AB633B382345AF6AD4617A68C4C9536380C65CE10A8004FA8293951A4AB0</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5225,11 +5234,11 @@
       </c>
       <c r="B253" t="str">
         <f t="shared" si="6"/>
-        <v>Solar Ash  </v>
+        <v>Slaves of Rome </v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="7"/>
-        <v>0x99C23CA1FA67CB2826AD414854FAB2AC624DC5B87BB9D0171E2EE6258A1115F4</v>
+        <v>0xC3AEC3423C1676D9CFA5A5F3CB81DDF95CE7DF7B79CCFB0DE58CF48A5947395A</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5238,11 +5247,11 @@
       </c>
       <c r="B254" t="str">
         <f t="shared" si="6"/>
-        <v>Sonic Smackdown</v>
+        <v>Solar Ash  </v>
       </c>
       <c r="C254" t="str">
         <f t="shared" si="7"/>
-        <v>0x26858B259CE85E55611B355CF193CDE2348FDCAC6D4ED97B6DA861BA539BD556</v>
+        <v>0x99C23CA1FA67CB2826AD414854FAB2AC624DC5B87BB9D0171E2EE6258A1115F4</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5251,11 +5260,11 @@
       </c>
       <c r="B255" t="str">
         <f t="shared" si="6"/>
-        <v>Soul Dance Party (alpha)   </v>
+        <v>Sonic Smackdown</v>
       </c>
       <c r="C255" t="str">
         <f t="shared" si="7"/>
-        <v>0xD73873133904C2284B55F069B6F9F1DDD2E828632DC8D7A098505F871EFD7D70</v>
+        <v>0x26858B259CE85E55611B355CF193CDE2348FDCAC6D4ED97B6DA861BA539BD556</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5264,11 +5273,11 @@
       </c>
       <c r="B256" t="str">
         <f t="shared" si="6"/>
-        <v>Soul Dossier   </v>
+        <v>Soul Dance Party (alpha)   </v>
       </c>
       <c r="C256" t="str">
         <f t="shared" si="7"/>
-        <v>0x359B4101D32B89F4DD55DCF45DDD480DC976B1D569E60511F525BFA0AEFFC85B</v>
+        <v>0xD73873133904C2284B55F069B6F9F1DDD2E828632DC8D7A098505F871EFD7D70</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5277,11 +5286,11 @@
       </c>
       <c r="B257" t="str">
         <f t="shared" si="6"/>
-        <v>Soulcalibur 6  </v>
+        <v>Soul Dossier   </v>
       </c>
       <c r="C257" t="str">
         <f t="shared" si="7"/>
-        <v>0x51794E5444284273614E6C675F297132754F3936626C667A25744E4379232E67</v>
+        <v>0x359B4101D32B89F4DD55DCF45DDD480DC976B1D569E60511F525BFA0AEFFC85B</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5290,11 +5299,11 @@
       </c>
       <c r="B258" t="str">
         <f t="shared" ref="B258:B321" si="8">LEFT(A258,SEARCH("/",SUBSTITUTE(A258," ","/",LEN(A258)-LEN(SUBSTITUTE(A258," ",))))-1)</f>
-        <v>Soviet Lunapark VR </v>
+        <v>Soulcalibur 6  </v>
       </c>
       <c r="C258" t="str">
         <f t="shared" ref="C258:C321" si="9">RIGHT(A258,LEN(A258)-FIND("^^",SUBSTITUTE(A258," ","^^",LEN(A258)-LEN(SUBSTITUTE(A258," ","")))))</f>
-        <v>0x6533567167534D68756150773735666D305064475A434E3341537770564F6B35</v>
+        <v>0x51794E5444284273614E6C675F297132754F3936626C667A25744E4379232E67</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5303,11 +5312,11 @@
       </c>
       <c r="B259" t="str">
         <f t="shared" si="8"/>
-        <v>Spellbreak </v>
+        <v>Soviet Lunapark VR </v>
       </c>
       <c r="C259" t="str">
         <f t="shared" si="9"/>
-        <v>0x1EF76216B7C1AC2691CE90AF93B3710F856CC589D87A02849E0F213EED3C86B5</v>
+        <v>0x6533567167534D68756150773735666D305064475A434E3341537770564F6B35</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5316,11 +5325,11 @@
       </c>
       <c r="B260" t="str">
         <f t="shared" si="8"/>
-        <v>Splitgate </v>
+        <v>Spellbreak </v>
       </c>
       <c r="C260" t="str">
         <f t="shared" si="9"/>
-        <v>0xD73A797940208F2FB29256BE81A7CBC7B74CBF899441BB277F357F7F4577DBBB</v>
+        <v>0x1EF76216B7C1AC2691CE90AF93B3710F856CC589D87A02849E0F213EED3C86B5</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5329,11 +5338,11 @@
       </c>
       <c r="B261" t="str">
         <f t="shared" si="8"/>
-        <v>Squad  </v>
+        <v>Splitgate </v>
       </c>
       <c r="C261" t="str">
         <f t="shared" si="9"/>
-        <v>0xBC0C07592D6B17BAB88B83A68583A053A6D9A0450CB54ABF5C231DBA59A7466B</v>
+        <v>0xD73A797940208F2FB29256BE81A7CBC7B74CBF899441BB277F357F7F4577DBBB</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5342,11 +5351,11 @@
       </c>
       <c r="B262" t="str">
         <f t="shared" si="8"/>
-        <v>Squirrelmageddon   </v>
+        <v>Squad  </v>
       </c>
       <c r="C262" t="str">
         <f t="shared" si="9"/>
-        <v>0xD10FDF4A1FE9EF3F0DB325C0B9D069F8F840A88F41ED20D6F4695BBA7F25983A</v>
+        <v>0xBC0C07592D6B17BAB88B83A68583A053A6D9A0450CB54ABF5C231DBA59A7466B</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5355,11 +5364,11 @@
       </c>
       <c r="B263" t="str">
         <f t="shared" si="8"/>
-        <v>Street Fighter V   </v>
+        <v>Squirrelmageddon   </v>
       </c>
       <c r="C263" t="str">
         <f t="shared" si="9"/>
-        <v>0x5F6153346D665A4B384D3573354B5743324C7A325673466E474B4937617A676C</v>
+        <v>0xD10FDF4A1FE9EF3F0DB325C0B9D069F8F840A88F41ED20D6F4695BBA7F25983A</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5368,11 +5377,11 @@
       </c>
       <c r="B264" t="str">
         <f t="shared" si="8"/>
-        <v>Stride </v>
+        <v>Street Fighter V   </v>
       </c>
       <c r="C264" t="str">
         <f t="shared" si="9"/>
-        <v>0xFFFA5619781AE847A55BF2B05B3F916801DC6A4D515BF84B9EC3F4D6EB05D8C2</v>
+        <v>0x5F6153346D665A4B384D3573354B5743324C7A325673466E474B4937617A676C</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5381,11 +5390,11 @@
       </c>
       <c r="B265" t="str">
         <f t="shared" si="8"/>
-        <v>Subverse   </v>
+        <v>Stride </v>
       </c>
       <c r="C265" t="str">
         <f t="shared" si="9"/>
-        <v>0xB6B0763265C2365D4B035EC46936005D018FB4FE3427C3BC51BFDE1EDCBE6C95</v>
+        <v>0xFFFA5619781AE847A55BF2B05B3F916801DC6A4D515BF84B9EC3F4D6EB05D8C2</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5394,11 +5403,11 @@
       </c>
       <c r="B266" t="str">
         <f t="shared" si="8"/>
-        <v>Sunken Century </v>
+        <v>Subverse   </v>
       </c>
       <c r="C266" t="str">
         <f t="shared" si="9"/>
-        <v>0xB789AFBFBDAE0E38A41B0F76A60C4F5EFF5C6338EC2869C28BAA7098222D68FA</v>
+        <v>0xB6B0763265C2365D4B035EC46936005D018FB4FE3427C3BC51BFDE1EDCBE6C95</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5407,11 +5416,11 @@
       </c>
       <c r="B267" t="str">
         <f t="shared" si="8"/>
-        <v>Super People (alpha)   </v>
+        <v>Sunken Century </v>
       </c>
       <c r="C267" t="str">
         <f t="shared" si="9"/>
-        <v>0xD1F7F5DE8B3D9459D743D9307ED6D032F66B31FD6D8C8F2BC37BC7ABA60B67A4</v>
+        <v>0xB789AFBFBDAE0E38A41B0F76A60C4F5EFF5C6338EC2869C28BAA7098222D68FA</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5420,11 +5429,11 @@
       </c>
       <c r="B268" t="str">
         <f t="shared" si="8"/>
-        <v>Super Squad</v>
+        <v>Super People (alpha)   </v>
       </c>
       <c r="C268" t="str">
         <f t="shared" si="9"/>
-        <v>0x237E6049F6F016AF0FC84D809150AA4899FF8D6C550F5E11DA81F11E47563391</v>
+        <v>0xD1F7F5DE8B3D9459D743D9307ED6D032F66B31FD6D8C8F2BC37BC7ABA60B67A4</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5433,11 +5442,11 @@
       </c>
       <c r="B269" t="str">
         <f t="shared" si="8"/>
-        <v>Super String   </v>
+        <v>Super Squad</v>
       </c>
       <c r="C269" t="str">
         <f t="shared" si="9"/>
-        <v>0x9FD17D3D8320A66041074B688870C9979B4CE78A1E3B0EA305FB58CA70AA5CE0</v>
+        <v>0x237E6049F6F016AF0FC84D809150AA4899FF8D6C550F5E11DA81F11E47563391</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5446,11 +5455,11 @@
       </c>
       <c r="B270" t="str">
         <f t="shared" si="8"/>
-        <v>Sword and Fairy 7 (cubejoy)</v>
+        <v>Super String   </v>
       </c>
       <c r="C270" t="str">
         <f t="shared" si="9"/>
-        <v>0xB37742E2DF203FAF02D00DD495D3297FAEB4B14D89FBD6C88D874884FAB8EAD5</v>
+        <v>0x9FD17D3D8320A66041074B688870C9979B4CE78A1E3B0EA305FB58CA70AA5CE0</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5459,11 +5468,11 @@
       </c>
       <c r="B271" t="str">
         <f t="shared" si="8"/>
-        <v>Sword and Fairy 7 (steam)  </v>
+        <v>Sword and Fairy 7 (cubejoy)</v>
       </c>
       <c r="C271" t="str">
         <f t="shared" si="9"/>
-        <v>0xE53BEBDBCEC82995F37033B62CFD8243E02C10C03AB12EA682F654DC805F4009</v>
+        <v>0xB37742E2DF203FAF02D00DD495D3297FAEB4B14D89FBD6C88D874884FAB8EAD5</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5472,11 +5481,11 @@
       </c>
       <c r="B272" t="str">
         <f t="shared" si="8"/>
-        <v>Sword Art Online: Fatal Bullet </v>
+        <v>Sword and Fairy 7 (steam)  </v>
       </c>
       <c r="C272" t="str">
         <f t="shared" si="9"/>
-        <v>0x68363747726A583261474D67724151654E776639566D435962743530796C4A46</v>
+        <v>0xE53BEBDBCEC82995F37033B62CFD8243E02C10C03AB12EA682F654DC805F4009</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5485,11 +5494,11 @@
       </c>
       <c r="B273" t="str">
         <f t="shared" si="8"/>
-        <v>Swordsman Love 2: Sword Song   </v>
+        <v>Sword Art Online: Fatal Bullet </v>
       </c>
       <c r="C273" t="str">
         <f t="shared" si="9"/>
-        <v>0x586C304B46326C66354F4B38616F566C74444758386D485259583943474C4B66</v>
+        <v>0x68363747726A583261474D67724151654E776639566D435962743530796C4A46</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5498,11 +5507,11 @@
       </c>
       <c r="B274" t="str">
         <f t="shared" si="8"/>
-        <v>System Shock Remastered (demo) </v>
+        <v>Swordsman Love 2: Sword Song   </v>
       </c>
       <c r="C274" t="str">
         <f t="shared" si="9"/>
-        <v>0xA7628FFD62C258B1CC5D3D27AE7238B2A39C2DB54CC77CCFFC006BF18B82D9EE</v>
+        <v>0x586C304B46326C66354F4B38616F566C74444758386D485259583943474C4B66</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5511,11 +5520,11 @@
       </c>
       <c r="B275" t="str">
         <f t="shared" si="8"/>
-        <v>Tales of Arise </v>
+        <v>System Shock Remastered (demo) </v>
       </c>
       <c r="C275" t="str">
         <f t="shared" si="9"/>
-        <v>0x61FC71A1376A29598393E2BFB976B275705F460E29399CFD1F9C060C8CD6CE40</v>
+        <v>0xA7628FFD62C258B1CC5D3D27AE7238B2A39C2DB54CC77CCFFC006BF18B82D9EE</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5524,11 +5533,11 @@
       </c>
       <c r="B276" t="str">
         <f t="shared" si="8"/>
-        <v>Tetris Effect  </v>
+        <v>Tales of Arise </v>
       </c>
       <c r="C276" t="str">
         <f t="shared" si="9"/>
-        <v>0x0635D5F4B20E2CF1708524223DB7F1C77E7C49C556C5B875A90132E88E91F734</v>
+        <v>0x61FC71A1376A29598393E2BFB976B275705F460E29399CFD1F9C060C8CD6CE40</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5537,11 +5546,11 @@
       </c>
       <c r="B277" t="str">
         <f t="shared" si="8"/>
-        <v>The Ascent </v>
+        <v>Tetris Effect  </v>
       </c>
       <c r="C277" t="str">
         <f t="shared" si="9"/>
-        <v>0x6ACFF951D1952506773848807330084450575701A559916E1368F7620BD4B496</v>
+        <v>0x0635D5F4B20E2CF1708524223DB7F1C77E7C49C556C5B875A90132E88E91F734</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5550,11 +5559,11 @@
       </c>
       <c r="B278" t="str">
         <f t="shared" si="8"/>
-        <v>The Bard's Tale IV: Barrows Deep   </v>
+        <v>The Ascent </v>
       </c>
       <c r="C278" t="str">
         <f t="shared" si="9"/>
-        <v>0x3837413131443231303941393635363539304533333831463641343337363946</v>
+        <v>0x6ACFF951D1952506773848807330084450575701A559916E1368F7620BD4B496</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5563,11 +5572,11 @@
       </c>
       <c r="B279" t="str">
         <f t="shared" si="8"/>
-        <v>The Blackout Club  </v>
+        <v>The Bard's Tale IV: Barrows Deep   </v>
       </c>
       <c r="C279" t="str">
         <f t="shared" si="9"/>
-        <v>0x488ABADE5D498BBD70F6619F0D4F694AAFA1E8C0F6E9F2BC6F054650614619AE</v>
+        <v>0x3837413131443231303941393635363539304533333831463641343337363946</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5576,11 +5585,11 @@
       </c>
       <c r="B280" t="str">
         <f t="shared" si="8"/>
-        <v>The Exit   </v>
+        <v>The Blackout Club  </v>
       </c>
       <c r="C280" t="str">
         <f t="shared" si="9"/>
-        <v>0xCC905E9CDC5C151D093CFB91631C09486421BA6EA3E72DA8959F49BC479C9AEA</v>
+        <v>0x488ABADE5D498BBD70F6619F0D4F694AAFA1E8C0F6E9F2BC6F054650614619AE</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5589,11 +5598,11 @@
       </c>
       <c r="B281" t="str">
         <f t="shared" si="8"/>
-        <v>The Haunting: Blood Water Curse</v>
+        <v>The Exit   </v>
       </c>
       <c r="C281" t="str">
         <f t="shared" si="9"/>
-        <v>0xC5F063B2BAEB59047BAB44B4D73A33E53E73391030AB0FE2314DAD9AE5ECD2CC</v>
+        <v>0xCC905E9CDC5C151D093CFB91631C09486421BA6EA3E72DA8959F49BC479C9AEA</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5602,11 +5611,11 @@
       </c>
       <c r="B282" t="str">
         <f t="shared" si="8"/>
-        <v>The Hauntings  </v>
+        <v>The Haunting: Blood Water Curse</v>
       </c>
       <c r="C282" t="str">
         <f t="shared" si="9"/>
-        <v>0xE2D36CF2F3C4AB26B45EB024CBA5172A1F423CC4D09F80FE938E6E33A0C699A3</v>
+        <v>0xC5F063B2BAEB59047BAB44B4D73A33E53E73391030AB0FE2314DAD9AE5ECD2CC</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5615,11 +5624,11 @@
       </c>
       <c r="B283" t="str">
         <f t="shared" si="8"/>
-        <v>The Idolmaster Starlit Season  </v>
+        <v>The Hauntings  </v>
       </c>
       <c r="C283" t="str">
         <f t="shared" si="9"/>
-        <v>0x75D37B405AD9745CCB5BE53FD163326B6044D49B1134A9510835BBC8B46B2DDA</v>
+        <v>0xE2D36CF2F3C4AB26B45EB024CBA5172A1F423CC4D09F80FE938E6E33A0C699A3</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5628,11 +5637,11 @@
       </c>
       <c r="B284" t="str">
         <f t="shared" si="8"/>
-        <v>The Isle   </v>
+        <v>The Idolmaster Starlit Season  </v>
       </c>
       <c r="C284" t="str">
         <f t="shared" si="9"/>
-        <v>0x5659DB88F7538BBBD800E759F9C7A9C5F2D61EE5A202F93564D4B4D445BB1E15</v>
+        <v>0x75D37B405AD9745CCB5BE53FD163326B6044D49B1134A9510835BBC8B46B2DDA</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5641,11 +5650,11 @@
       </c>
       <c r="B285" t="str">
         <f t="shared" si="8"/>
-        <v>The Isle (Evrima beta) </v>
+        <v>The Isle   </v>
       </c>
       <c r="C285" t="str">
         <f t="shared" si="9"/>
-        <v>0xE88168BEB9BCE56C1F9FA1A9BF4CCDAF2A61EC60F6294CA5667F68E3196F225F</v>
+        <v>0x5659DB88F7538BBBD800E759F9C7A9C5F2D61EE5A202F93564D4B4D445BB1E15</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5654,11 +5663,11 @@
       </c>
       <c r="B286" t="str">
         <f t="shared" si="8"/>
-        <v>The Magissy: Reloaded  </v>
+        <v>The Isle (Evrima beta) </v>
       </c>
       <c r="C286" t="str">
         <f t="shared" si="9"/>
-        <v>0x04350D036FCFCE94737A4DC871700B201894FB419BC7D24C8AE0C06CCBC0362E</v>
+        <v>0xE88168BEB9BCE56C1F9FA1A9BF4CCDAF2A61EC60F6294CA5667F68E3196F225F</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5667,11 +5676,11 @@
       </c>
       <c r="B287" t="str">
         <f t="shared" si="8"/>
-        <v>The Orville - Interactive Fan Experience   </v>
+        <v>The Magissy: Reloaded  </v>
       </c>
       <c r="C287" t="str">
         <f t="shared" si="9"/>
-        <v>0xB1B1AE82FF7DBCBE17BE9E1FAAE3C73F06A84FC94A453CA20DC97847210D9720</v>
+        <v>0x04350D036FCFCE94737A4DC871700B201894FB419BC7D24C8AE0C06CCBC0362E</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5680,11 +5689,11 @@
       </c>
       <c r="B288" t="str">
         <f t="shared" si="8"/>
-        <v>The Sinking City   </v>
+        <v>The Orville - Interactive Fan Experience   </v>
       </c>
       <c r="C288" t="str">
         <f t="shared" si="9"/>
-        <v>0xAAF9AF1F40225A1241C120533277804B09A56CE78CBF100C131423788DB0E34F</v>
+        <v>0xB1B1AE82FF7DBCBE17BE9E1FAAE3C73F06A84FC94A453CA20DC97847210D9720</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5693,11 +5702,11 @@
       </c>
       <c r="B289" t="str">
         <f t="shared" si="8"/>
-        <v>The Swordsmen X (mobile)   </v>
+        <v>The Sinking City   </v>
       </c>
       <c r="C289" t="str">
         <f t="shared" si="9"/>
-        <v>0xC41BE991A5AAD6B423A3D09663F36E74BB19949235EA765E5D48C1ADBAE119AD</v>
+        <v>0xAAF9AF1F40225A1241C120533277804B09A56CE78CBF100C131423788DB0E34F</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5706,11 +5715,11 @@
       </c>
       <c r="B290" t="str">
         <f t="shared" si="8"/>
-        <v>The Swordsmen X (WuXiaX)   </v>
+        <v>The Swordsmen X (mobile)   </v>
       </c>
       <c r="C290" t="str">
         <f t="shared" si="9"/>
-        <v>0x74D8C1139D21C75023D4F2250C626BA3AD2CA4F899D2624BCD299E00064882B5</v>
+        <v>0xC41BE991A5AAD6B423A3D09663F36E74BB19949235EA765E5D48C1ADBAE119AD</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5719,11 +5728,11 @@
       </c>
       <c r="B291" t="str">
         <f t="shared" si="8"/>
-        <v>Thunder Tier One   </v>
+        <v>The Swordsmen X (WuXiaX)   </v>
       </c>
       <c r="C291" t="str">
         <f t="shared" si="9"/>
-        <v>0x87CE811708542062EA0EBCFFAECDBD70B18E0B32FE801044A033AC4C7306FA9E</v>
+        <v>0x74D8C1139D21C75023D4F2250C626BA3AD2CA4F899D2624BCD299E00064882B5</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5732,11 +5741,11 @@
       </c>
       <c r="B292" t="str">
         <f t="shared" si="8"/>
-        <v>TO4: Tactical Operations   </v>
+        <v>Thunder Tier One   </v>
       </c>
       <c r="C292" t="str">
         <f t="shared" si="9"/>
-        <v>0x9B40AB6D4A9631E403A3FA24B3D609472FA7A488459E66AF448AA438BF52119B</v>
+        <v>0x87CE811708542062EA0EBCFFAECDBD70B18E0B32FE801044A033AC4C7306FA9E</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5745,11 +5754,11 @@
       </c>
       <c r="B293" t="str">
         <f t="shared" si="8"/>
-        <v>Tony Hawk's Pro Skater 1+2 (demo)  </v>
+        <v>TO4: Tactical Operations   </v>
       </c>
       <c r="C293" t="str">
         <f t="shared" si="9"/>
-        <v>0x3F892F69651245D4E11C053D6A9E079628F57237408B762054FBCEA071DBFECF</v>
+        <v>0x9B40AB6D4A9631E403A3FA24B3D609472FA7A488459E66AF448AA438BF52119B</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5758,11 +5767,11 @@
       </c>
       <c r="B294" t="str">
         <f t="shared" si="8"/>
-        <v>Tower of Fantasy   </v>
+        <v>Tony Hawk's Pro Skater 1+2 (demo)  </v>
       </c>
       <c r="C294" t="str">
         <f t="shared" si="9"/>
-        <v>0xABDB1F9379A16323851EAB1868B6D9125EDEB37B64F29BB36918D694DDE34A8D</v>
+        <v>0x3F892F69651245D4E11C053D6A9E079628F57237408B762054FBCEA071DBFECF</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5771,11 +5780,11 @@
       </c>
       <c r="B295" t="str">
         <f t="shared" si="8"/>
-        <v>Tower Unite</v>
+        <v>Tower of Fantasy   </v>
       </c>
       <c r="C295" t="str">
         <f t="shared" si="9"/>
-        <v>0x5E1721A2173205570CEDA641CF0177A5E092F79FDBA64E0A783B109B2963E2BB</v>
+        <v>0xABDB1F9379A16323851EAB1868B6D9125EDEB37B64F29BB36918D694DDE34A8D</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5784,11 +5793,11 @@
       </c>
       <c r="B296" t="str">
         <f t="shared" si="8"/>
-        <v>Town of Machine</v>
+        <v>Tower Unite</v>
       </c>
       <c r="C296" t="str">
         <f t="shared" si="9"/>
-        <v>0xBE3F6301521093D0828346418E9F2311F1C7325F44E0724994691A8932AA0CC4</v>
+        <v>0x5E1721A2173205570CEDA641CF0177A5E092F79FDBA64E0A783B109B2963E2BB</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5797,11 +5806,11 @@
       </c>
       <c r="B297" t="str">
         <f t="shared" si="8"/>
-        <v>Traha (playmarket v3.5.5 kor)  </v>
+        <v>Town of Machine</v>
       </c>
       <c r="C297" t="str">
         <f t="shared" si="9"/>
-        <v>0x5FA3BEB466377959216A798BA7883A8BEF4D4CBAD24146A4CB121B9E81727F52</v>
+        <v>0xBE3F6301521093D0828346418E9F2311F1C7325F44E0724994691A8932AA0CC4</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5810,11 +5819,11 @@
       </c>
       <c r="B298" t="str">
         <f t="shared" si="8"/>
-        <v>Traha (QoApp version)  </v>
+        <v>Traha (playmarket v3.5.5 kor)  </v>
       </c>
       <c r="C298" t="str">
         <f t="shared" si="9"/>
-        <v>0x5BC32AF235BFE930F23D6C6E668F375CFC3E75AEE0BECBEFD08DB04824920B30</v>
+        <v>0x5FA3BEB466377959216A798BA7883A8BEF4D4CBAD24146A4CB121B9E81727F52</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5823,11 +5832,11 @@
       </c>
       <c r="B299" t="str">
         <f t="shared" si="8"/>
-        <v>TramSim</v>
+        <v>Traha (QoApp version)  </v>
       </c>
       <c r="C299" t="str">
         <f t="shared" si="9"/>
-        <v>0x983D417478AF267C0DC6C83DBD922F490A5C7093A803B278B27B728012BE92B2</v>
+        <v>0x5BC32AF235BFE930F23D6C6E668F375CFC3E75AEE0BECBEFD08DB04824920B30</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5836,11 +5845,11 @@
       </c>
       <c r="B300" t="str">
         <f t="shared" si="8"/>
-        <v>Tree of Life: Oddria (demo)</v>
+        <v>TramSim</v>
       </c>
       <c r="C300" t="str">
         <f t="shared" si="9"/>
-        <v>0xDC8D1A59C6C9814FCFA207C65C43EDD49CEC8C9FFFB18A64E5CF52DBFB403B55</v>
+        <v>0x983D417478AF267C0DC6C83DBD922F490A5C7093A803B278B27B728012BE92B2</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5849,11 +5858,11 @@
       </c>
       <c r="B301" t="str">
         <f t="shared" si="8"/>
-        <v>Trover Saves the Universe  </v>
+        <v>Tree of Life: Oddria (demo)</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" si="9"/>
-        <v>0x3D6D953341FBB92ED26D7AB6C61D4A04D761228DAE633921151F8BD1E3E54AB4</v>
+        <v>0xDC8D1A59C6C9814FCFA207C65C43EDD49CEC8C9FFFB18A64E5CF52DBFB403B55</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5862,11 +5871,11 @@
       </c>
       <c r="B302" t="str">
         <f t="shared" si="8"/>
-        <v>Twin Mirror</v>
+        <v>Trover Saves the Universe  </v>
       </c>
       <c r="C302" t="str">
         <f t="shared" si="9"/>
-        <v>0x5ACB2CE4AAD0B4182FA568CBED4C9C1D8C1ECCF06770A26D8D9015F78B0B067E</v>
+        <v>0x3D6D953341FBB92ED26D7AB6C61D4A04D761228DAE633921151F8BD1E3E54AB4</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5875,11 +5884,11 @@
       </c>
       <c r="B303" t="str">
         <f t="shared" si="8"/>
-        <v>Uncharted Waters Origin (closed beta)  </v>
+        <v>Twin Mirror</v>
       </c>
       <c r="C303" t="str">
         <f t="shared" si="9"/>
-        <v>0x7B2308272FBDCF537A45FB31F6979E009A93F368BD803E1862815176962985CF</v>
+        <v>0x5ACB2CE4AAD0B4182FA568CBED4C9C1D8C1ECCF06770A26D8D9015F78B0B067E</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5888,11 +5897,11 @@
       </c>
       <c r="B304" t="str">
         <f t="shared" si="8"/>
-        <v>Undecember (open beta) </v>
+        <v>Uncharted Waters Origin (closed beta)  </v>
       </c>
       <c r="C304" t="str">
         <f t="shared" si="9"/>
-        <v>0x4273A621E66A86E7DECD725F616B267205BFFE6B28F4539DDE2A23098BE36D39</v>
+        <v>0x7B2308272FBDCF537A45FB31F6979E009A93F368BD803E1862815176962985CF</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5901,11 +5910,11 @@
       </c>
       <c r="B305" t="str">
         <f t="shared" si="8"/>
-        <v>V4 (PC)</v>
+        <v>Undecember (open beta) </v>
       </c>
       <c r="C305" t="str">
         <f t="shared" si="9"/>
-        <v>0xD4447D330E694424AA9A555368C3EA85C2CE6E89ADBB56EF504960CE837B25C4</v>
+        <v>0x4273A621E66A86E7DECD725F616B267205BFFE6B28F4539DDE2A23098BE36D39</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5914,11 +5923,11 @@
       </c>
       <c r="B306" t="str">
         <f t="shared" si="8"/>
-        <v>Valorant   </v>
+        <v>V4 (PC)</v>
       </c>
       <c r="C306" t="str">
         <f t="shared" si="9"/>
-        <v>0x4BE71AF2459CF83899EC9DC2CB60E22AC4B3047E0211034BBABE9D174C069DD6</v>
+        <v>0xD4447D330E694424AA9A555368C3EA85C2CE6E89ADBB56EF504960CE837B25C4</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5927,11 +5936,11 @@
       </c>
       <c r="B307" t="str">
         <f t="shared" si="8"/>
-        <v>Vampire: The Masquerade - Bloodhunt</v>
+        <v>Valorant   </v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="9"/>
-        <v>0x5A07862EC8BE622001DE6829CEA0AC150BA9555DCF4CD91AD358746BB7F82067</v>
+        <v>0x4BE71AF2459CF83899EC9DC2CB60E22AC4B3047E0211034BBABE9D174C069DD6</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5940,11 +5949,11 @@
       </c>
       <c r="B308" t="str">
         <f t="shared" si="8"/>
-        <v>Vizonica   </v>
+        <v>Vampire: The Masquerade - Bloodhunt</v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="9"/>
-        <v>0xC37A57AA1584A1CB8ECE74271EC49D5487086D13D5F977D063692DE48ECBB2E9</v>
+        <v>0x5A07862EC8BE622001DE6829CEA0AC150BA9555DCF4CD91AD358746BB7F82067</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5953,11 +5962,11 @@
       </c>
       <c r="B309" t="str">
         <f t="shared" si="8"/>
-        <v>VR Paradise</v>
+        <v>Vizonica   </v>
       </c>
       <c r="C309" t="str">
         <f t="shared" si="9"/>
-        <v>0xAACEA003AC51562122C15035C566DEB1E41B0D23ED8C8FEA86E84334A98F2723</v>
+        <v>0xC37A57AA1584A1CB8ECE74271EC49D5487086D13D5F977D063692DE48ECBB2E9</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5966,11 +5975,11 @@
       </c>
       <c r="B310" t="str">
         <f t="shared" si="8"/>
-        <v>vrXcity</v>
+        <v>VR Paradise</v>
       </c>
       <c r="C310" t="str">
         <f t="shared" si="9"/>
-        <v>0x5D21BA45FC4A8173D3735FB1FB49D3C95ABF3B3ECB1C14EBA91E2BFEB0A711FA</v>
+        <v>0xAACEA003AC51562122C15035C566DEB1E41B0D23ED8C8FEA86E84334A98F2723</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5979,11 +5988,11 @@
       </c>
       <c r="B311" t="str">
         <f t="shared" si="8"/>
-        <v>War Islands: A Co-op Adventure </v>
+        <v>vrXcity</v>
       </c>
       <c r="C311" t="str">
         <f t="shared" si="9"/>
-        <v>0x2CF1731793C36D01CF2DD0F74B817F18AE7FBD659D8974DBCFB7E03E15368D91</v>
+        <v>0x5D21BA45FC4A8173D3735FB1FB49D3C95ABF3B3ECB1C14EBA91E2BFEB0A711FA</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5992,11 +6001,11 @@
       </c>
       <c r="B312" t="str">
         <f t="shared" si="8"/>
-        <v>Warhammer Age of Sigmar: Storm Ground  </v>
+        <v>War Islands: A Co-op Adventure </v>
       </c>
       <c r="C312" t="str">
         <f t="shared" si="9"/>
-        <v>0x098FDBE26F0B5B07BB1D80FBBCBECECF62CEBF3EBFD99A5560B6B9C00CCF5CC8</v>
+        <v>0x2CF1731793C36D01CF2DD0F74B817F18AE7FBD659D8974DBCFB7E03E15368D91</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6005,11 +6014,11 @@
       </c>
       <c r="B313" t="str">
         <f t="shared" si="8"/>
-        <v>Warrior Beneath Heaven </v>
+        <v>Warhammer Age of Sigmar: Storm Ground  </v>
       </c>
       <c r="C313" t="str">
         <f t="shared" si="9"/>
-        <v>0x390EE88068C53AA1E7709800FE8C18B46941FBD184B7EFA037995D4927E6157E</v>
+        <v>0x098FDBE26F0B5B07BB1D80FBBCBECECF62CEBF3EBFD99A5560B6B9C00CCF5CC8</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6018,11 +6027,11 @@
       </c>
       <c r="B314" t="str">
         <f t="shared" si="8"/>
-        <v>We Went Back   </v>
+        <v>Warrior Beneath Heaven </v>
       </c>
       <c r="C314" t="str">
         <f t="shared" si="9"/>
-        <v>0x5E4C50FA498E59C2D1F0B8289593F2F4C524806A0D00F8D22AB4BBB5E06F7F4C</v>
+        <v>0x390EE88068C53AA1E7709800FE8C18B46941FBD184B7EFA037995D4927E6157E</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6031,11 +6040,11 @@
       </c>
       <c r="B315" t="str">
         <f t="shared" si="8"/>
-        <v>Weakless   </v>
+        <v>We Went Back   </v>
       </c>
       <c r="C315" t="str">
         <f t="shared" si="9"/>
-        <v>0x848CFCFB7B7374D838DBC9A9EF76A3976F2A0B82442E003E751078672D8C34DE</v>
+        <v>0x5E4C50FA498E59C2D1F0B8289593F2F4C524806A0D00F8D22AB4BBB5E06F7F4C</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6044,11 +6053,11 @@
       </c>
       <c r="B316" t="str">
         <f t="shared" si="8"/>
-        <v>Westworld Awakening</v>
+        <v>Weakless   </v>
       </c>
       <c r="C316" t="str">
         <f t="shared" si="9"/>
-        <v>0xDDBBC3C3BEDEBFDACA935DB3368436444BB0CD1B2627BC2D785FFCEFD374DAE2</v>
+        <v>0x848CFCFB7B7374D838DBC9A9EF76A3976F2A0B82442E003E751078672D8C34DE</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6057,11 +6066,11 @@
       </c>
       <c r="B317" t="str">
         <f t="shared" si="8"/>
-        <v>Wild Born  </v>
+        <v>Westworld Awakening</v>
       </c>
       <c r="C317" t="str">
         <f t="shared" si="9"/>
-        <v>0x50EF62F84B2AC08E8FB04F5468154EACEB661ED83864C9F3F77F7CD9C0D42289</v>
+        <v>0xDDBBC3C3BEDEBFDACA935DB3368436444BB0CD1B2627BC2D785FFCEFD374DAE2</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6070,11 +6079,11 @@
       </c>
       <c r="B318" t="str">
         <f t="shared" si="8"/>
-        <v>Will To Live Online</v>
+        <v>Wild Born  </v>
       </c>
       <c r="C318" t="str">
         <f t="shared" si="9"/>
-        <v>0xCF0E974679576398EFC7C9517DF0F3010A7D42BE3B92A916A23F0E399B9F4FFF</v>
+        <v>0x50EF62F84B2AC08E8FB04F5468154EACEB661ED83864C9F3F77F7CD9C0D42289</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6083,11 +6092,11 @@
       </c>
       <c r="B319" t="str">
         <f t="shared" si="8"/>
-        <v>Witch It   </v>
+        <v>Will To Live Online</v>
       </c>
       <c r="C319" t="str">
         <f t="shared" si="9"/>
-        <v>0x0CB6EB5BA12C03C4A2D8D3BFE247D8EA99C9B2C263B25B235ED8EC3170B91BC1</v>
+        <v>0xCF0E974679576398EFC7C9517DF0F3010A7D42BE3B92A916A23F0E399B9F4FFF</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6096,11 +6105,11 @@
       </c>
       <c r="B320" t="str">
         <f t="shared" si="8"/>
-        <v>World War 3</v>
+        <v>Witch It   </v>
       </c>
       <c r="C320" t="str">
         <f t="shared" si="9"/>
-        <v>0x189C0D1E0A10708A13796B5A59BFC2A06D36A4CB8392B5955B9F34F911D3AE66</v>
+        <v>0x0CB6EB5BA12C03C4A2D8D3BFE247D8EA99C9B2C263B25B235ED8EC3170B91BC1</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6109,11 +6118,11 @@
       </c>
       <c r="B321" t="str">
         <f t="shared" si="8"/>
-        <v>Worms Rumble   </v>
+        <v>World War 3</v>
       </c>
       <c r="C321" t="str">
         <f t="shared" si="9"/>
-        <v>0x9E84B3B5BFA9C7F0EE9B3FB51E8F97B17E4DFDD9C0A8160B23121205A989137D</v>
+        <v>0x189C0D1E0A10708A13796B5A59BFC2A06D36A4CB8392B5955B9F34F911D3AE66</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6122,11 +6131,11 @@
       </c>
       <c r="B322" t="str">
         <f>LEFT(A322,SEARCH("/",SUBSTITUTE(A322," ","/",LEN(A322)-LEN(SUBSTITUTE(A322," ",))))-1)</f>
-        <v>Xuan-Yuan Sword VII (steam)</v>
+        <v>Worms Rumble   </v>
       </c>
       <c r="C322" t="str">
         <f>RIGHT(A322,LEN(A322)-FIND("^^",SUBSTITUTE(A322," ","^^",LEN(A322)-LEN(SUBSTITUTE(A322," ","")))))</f>
-        <v>0xA1A75DA6B6223810A76BFEA98DA4CE5CD8026AE0DEEECDCCEF1AC71740F2FC50</v>
+        <v>0x9E84B3B5BFA9C7F0EE9B3FB51E8F97B17E4DFDD9C0A8160B23121205A989137D</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6135,11 +6144,11 @@
       </c>
       <c r="B323" t="str">
         <f>LEFT(A323,SEARCH("/",SUBSTITUTE(A323," ","/",LEN(A323)-LEN(SUBSTITUTE(A323," ",))))-1)</f>
-        <v>Xuan-Yuan Sword VII (wegame)   </v>
+        <v>Xuan-Yuan Sword VII (steam)</v>
       </c>
       <c r="C323" t="str">
         <f>RIGHT(A323,LEN(A323)-FIND("^^",SUBSTITUTE(A323," ","^^",LEN(A323)-LEN(SUBSTITUTE(A323," ","")))))</f>
-        <v>0xAEC57B958756953BF799C5E6AB2C10442D09C5D0A1BDA8795745D5822C22107F</v>
+        <v>0xA1A75DA6B6223810A76BFEA98DA4CE5CD8026AE0DEEECDCCEF1AC71740F2FC50</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6148,11 +6157,11 @@
       </c>
       <c r="B324" t="str">
         <f>LEFT(A324,SEARCH("/",SUBSTITUTE(A324," ","/",LEN(A324)-LEN(SUBSTITUTE(A324," ",))))-1)</f>
-        <v>YUME 2: Sleepless Night</v>
+        <v>Xuan-Yuan Sword VII (wegame)   </v>
       </c>
       <c r="C324" t="str">
         <f>RIGHT(A324,LEN(A324)-FIND("^^",SUBSTITUTE(A324," ","^^",LEN(A324)-LEN(SUBSTITUTE(A324," ","")))))</f>
-        <v>0xDFD2AFE96B16084D0346E70E77786622AE1D4253D615B925BDF1E3718D7559A3</v>
+        <v>0xAEC57B958756953BF799C5E6AB2C10442D09C5D0A1BDA8795745D5822C22107F</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6161,11 +6170,11 @@
       </c>
       <c r="B325" t="str">
         <f>LEFT(A325,SEARCH("/",SUBSTITUTE(A325," ","/",LEN(A325)-LEN(SUBSTITUTE(A325," ",))))-1)</f>
-        <v>Zeus Battlegrounds </v>
+        <v>YUME 2: Sleepless Night</v>
       </c>
       <c r="C325" t="str">
         <f>RIGHT(A325,LEN(A325)-FIND("^^",SUBSTITUTE(A325," ","^^",LEN(A325)-LEN(SUBSTITUTE(A325," ","")))))</f>
-        <v>0x6222A6B7296B5725C21FACD4188183690CF3565DAD078F2F149371128ED99EA5</v>
+        <v>0xDFD2AFE96B16084D0346E70E77786622AE1D4253D615B925BDF1E3718D7559A3</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6174,11 +6183,37 @@
       </c>
       <c r="B326" t="str">
         <f>LEFT(A326,SEARCH("/",SUBSTITUTE(A326," ","/",LEN(A326)-LEN(SUBSTITUTE(A326," ",))))-1)</f>
-        <v>Zhu Xian World (benchmark) </v>
+        <v>Zeus Battlegrounds </v>
       </c>
       <c r="C326" t="str">
         <f>RIGHT(A326,LEN(A326)-FIND("^^",SUBSTITUTE(A326," ","^^",LEN(A326)-LEN(SUBSTITUTE(A326," ","")))))</f>
+        <v>0x6222A6B7296B5725C21FACD4188183690CF3565DAD078F2F149371128ED99EA5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+      <c r="B327" t="str">
+        <f>LEFT(A327,SEARCH("/",SUBSTITUTE(A327," ","/",LEN(A327)-LEN(SUBSTITUTE(A327," ",))))-1)</f>
+        <v>Zhu Xian World (benchmark) </v>
+      </c>
+      <c r="C327" t="str">
+        <f>RIGHT(A327,LEN(A327)-FIND("^^",SUBSTITUTE(A327," ","^^",LEN(A327)-LEN(SUBSTITUTE(A327," ","")))))</f>
         <v>0xC20FE358AE4FB430341AF49B5A72DE126AD757BC090E470097F81A73BC6B45AA</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+      <c r="B328" t="str">
+        <f>LEFT(A328,SEARCH("/",SUBSTITUTE(A328," ","/",LEN(A328)-LEN(SUBSTITUTE(A328," ",))))-1)</f>
+        <v>Fortnite 1.9.1 </v>
+      </c>
+      <c r="C328" t="str">
+        <f>RIGHT(A328,LEN(A328)-FIND("^^",SUBSTITUTE(A328," ","^^",LEN(A328)-LEN(SUBSTITUTE(A328," ","")))))</f>
+        <v>DAE1418B289573D4148C72F3C76ABC7E2DB9CAA618A3EAF2D8580EB3A1BB7A63</v>
       </c>
     </row>
   </sheetData>
